--- a/datosBrutos/coa2018aymu.xlsx
+++ b/datosBrutos/coa2018aymu.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelvillarreal/ownCloud/Computos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgegallegos/Downloads/Estadisticas/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32F68415-CE9F-294C-9BA9-A7F99E6F29D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DFF7F1-6741-BB4A-88DA-0A7BF0128054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-600" yWindow="-17680" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTADOS VOTACION DISTRIBUIDA" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ABASOLO</t>
   </si>
@@ -194,6 +204,9 @@
   </si>
   <si>
     <t>INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>LISTA_NOMINAL</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Q51"/>
+  <dimension ref="A2:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1643,9 +1656,10 @@
     <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1659,17 +1673,17 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="10.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:17" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:17" ht="7.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:17" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="10.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:18" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:18" ht="7.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1721,8 +1735,11 @@
       <c r="Q10" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1774,8 +1791,11 @@
       <c r="Q11" s="4">
         <v>907</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="4">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1827,8 +1847,11 @@
       <c r="Q12" s="4">
         <v>63816</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="4">
+        <v>115712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -1880,8 +1903,11 @@
       <c r="Q13" s="4">
         <v>11541</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="4">
+        <v>18486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>4</v>
       </c>
@@ -1933,8 +1959,11 @@
       <c r="Q14" s="4">
         <v>12125</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="4">
+        <v>18775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -1986,8 +2015,11 @@
       <c r="Q15" s="4">
         <v>1390</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="4">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>6</v>
       </c>
@@ -2039,8 +2071,11 @@
       <c r="Q16" s="4">
         <v>12787</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="4">
+        <v>21675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>7</v>
       </c>
@@ -2092,8 +2127,11 @@
       <c r="Q17" s="4">
         <v>6331</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="4">
+        <v>9925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>8</v>
       </c>
@@ -2145,8 +2183,11 @@
       <c r="Q18" s="4">
         <v>1829</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="4">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>9</v>
       </c>
@@ -2198,8 +2239,11 @@
       <c r="Q19" s="4">
         <v>29146</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="4">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>10</v>
       </c>
@@ -2251,8 +2295,11 @@
       <c r="Q20" s="4">
         <v>36935</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="4">
+        <v>61553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>11</v>
       </c>
@@ -2304,8 +2351,11 @@
       <c r="Q21" s="4">
         <v>6880</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="4">
+        <v>9544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>12</v>
       </c>
@@ -2357,8 +2407,11 @@
       <c r="Q22" s="4">
         <v>1391</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="4">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>13</v>
       </c>
@@ -2410,8 +2463,11 @@
       <c r="Q23" s="4">
         <v>876</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="4">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>14</v>
       </c>
@@ -2463,8 +2519,11 @@
       <c r="Q24" s="4">
         <v>5011</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="4">
+        <v>8449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>15</v>
       </c>
@@ -2516,8 +2575,11 @@
       <c r="Q25" s="4">
         <v>1049</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="4">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>16</v>
       </c>
@@ -2569,8 +2631,11 @@
       <c r="Q26" s="4">
         <v>1360</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="4">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>17</v>
       </c>
@@ -2622,8 +2687,11 @@
       <c r="Q27" s="4">
         <v>54241</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="4">
+        <v>83299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>18</v>
       </c>
@@ -2675,8 +2743,11 @@
       <c r="Q28" s="4">
         <v>108884</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="4">
+        <v>178179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>19</v>
       </c>
@@ -2728,8 +2799,11 @@
       <c r="Q29" s="4">
         <v>4508</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="4">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>20</v>
       </c>
@@ -2781,8 +2855,11 @@
       <c r="Q30" s="4">
         <v>31168</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="4">
+        <v>54971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>21</v>
       </c>
@@ -2834,8 +2911,11 @@
       <c r="Q31" s="4">
         <v>3722</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="4">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>22</v>
       </c>
@@ -2887,8 +2967,11 @@
       <c r="Q32" s="4">
         <v>13084</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="4">
+        <v>23206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>23</v>
       </c>
@@ -2940,8 +3023,11 @@
       <c r="Q33" s="4">
         <v>4737</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="4">
+        <v>8487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>24</v>
       </c>
@@ -2993,8 +3079,11 @@
       <c r="Q34" s="4">
         <v>20485</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="4">
+        <v>35675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -3046,8 +3135,11 @@
       <c r="Q35" s="4">
         <v>69321</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="4">
+        <v>132141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>26</v>
       </c>
@@ -3099,8 +3191,11 @@
       <c r="Q36" s="4">
         <v>2044</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="4">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>27</v>
       </c>
@@ -3152,8 +3247,11 @@
       <c r="Q37" s="4">
         <v>36650</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="4">
+        <v>66829</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>28</v>
       </c>
@@ -3205,8 +3303,11 @@
       <c r="Q38" s="4">
         <v>29531</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="4">
+        <v>51793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>29</v>
       </c>
@@ -3258,8 +3359,11 @@
       <c r="Q39" s="4">
         <v>1655</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="4">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>30</v>
       </c>
@@ -3311,8 +3415,11 @@
       <c r="Q40" s="4">
         <v>351714</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="4">
+        <v>596725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>31</v>
       </c>
@@ -3364,8 +3471,11 @@
       <c r="Q41" s="4">
         <v>11523</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="4">
+        <v>18432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>32</v>
       </c>
@@ -3417,8 +3527,11 @@
       <c r="Q42" s="4">
         <v>21145</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="4">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>33</v>
       </c>
@@ -3470,8 +3583,11 @@
       <c r="Q43" s="4">
         <v>49556</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="4">
+        <v>76329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>34</v>
       </c>
@@ -3523,8 +3639,11 @@
       <c r="Q44" s="4">
         <v>2401</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="4">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>35</v>
       </c>
@@ -3576,8 +3695,11 @@
       <c r="Q45" s="4">
         <v>329379</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="4">
+        <v>517336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>36</v>
       </c>
@@ -3629,8 +3751,11 @@
       <c r="Q46" s="4">
         <v>10033</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="4">
+        <v>15734</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>37</v>
       </c>
@@ -3682,8 +3807,11 @@
       <c r="Q47" s="4">
         <v>3258</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="4">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>38</v>
       </c>
@@ -3735,8 +3863,11 @@
       <c r="Q48" s="4">
         <v>6624</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="4">
+        <v>10912</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>31</v>
       </c>
@@ -3749,7 +3880,7 @@
         <v>363418</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" ref="E50:Q50" si="0">SUM(E11:E48)</f>
+        <f t="shared" ref="E50:R50" si="0">SUM(E11:E48)</f>
         <v>470020</v>
       </c>
       <c r="F50" s="6">
@@ -3800,8 +3931,12 @@
         <f t="shared" si="0"/>
         <v>1359037</v>
       </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="6">
+        <f t="shared" si="0"/>
+        <v>2251549</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>32</v>
       </c>
